--- a/analysis/4.1.2/c/ori.xlsx
+++ b/analysis/4.1.2/c/ori.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>KP</t>
   </si>
@@ -47,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -57,18 +57,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -83,21 +79,21 @@
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="true"/>
     <col min="2" max="2" width="3.7109375" customWidth="true"/>
-    <col min="3" max="3" width="6.7109375" customWidth="true"/>
+    <col min="3" max="3" width="6.5703125" customWidth="true"/>
     <col min="4" max="4" width="13.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -109,7 +105,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C2">
-        <v>150.00999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D2">
         <v>281.53546666666409</v>
@@ -123,7 +119,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C3">
-        <v>150.00999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D3">
         <v>254.59506666666556</v>
@@ -137,7 +133,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C4">
-        <v>150.00999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D4">
         <v>200.71534999999952</v>
@@ -151,7 +147,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C5">
-        <v>150.00999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D5">
         <v>219.40005714285678</v>
@@ -165,7 +161,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C6">
-        <v>150.00999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D6">
         <v>209.52608888888884</v>
@@ -179,7 +175,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C7">
-        <v>150.00999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D7">
         <v>198.51727272727311</v>
@@ -193,7 +189,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C8">
-        <v>150.00999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D8">
         <v>198.30800000000224</v>
@@ -207,7 +203,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C9">
-        <v>150.00999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D9">
         <v>197.333799999999</v>

--- a/analysis/4.1.2/c/ori.xlsx
+++ b/analysis/4.1.2/c/ori.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>KP</t>
   </si>
@@ -47,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -57,14 +57,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -84,16 +88,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
